--- a/public/upload/report/DATA REKAPITULASI ABSENSI.xlsx
+++ b/public/upload/report/DATA REKAPITULASI ABSENSI.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
   <si>
     <t>DAFTAR REKAPITULASI ABSENSI LAPANGAN (APEL/PAGI) ASN LINGKUP SETDA PROV. SULTRA</t>
   </si>
@@ -23,46 +23,52 @@
     <t>BULAN JANUARI TAHUN 2024</t>
   </si>
   <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>NAMA UNOR</t>
+  </si>
+  <si>
+    <t>HARI/TANGGAL</t>
+  </si>
+  <si>
+    <t>JUMLAH ASN</t>
+  </si>
+  <si>
+    <t>LAPORAN</t>
+  </si>
+  <si>
+    <t>KETERANGAN</t>
+  </si>
+  <si>
+    <t>TL</t>
+  </si>
+  <si>
+    <t>CUTI</t>
+  </si>
+  <si>
+    <t>SAKIT</t>
+  </si>
+  <si>
+    <t>HADIR</t>
+  </si>
+  <si>
+    <t>TANPA KETERANGAN (TIDAK HADIR)</t>
+  </si>
+  <si>
+    <t>RATA-RATA HADIR (%)</t>
+  </si>
+  <si>
     <t>BIRO ADMINISTRASI KESRA DAN KEMASYARAKATAN</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>HARI/TANGGAL</t>
-  </si>
-  <si>
-    <t>JUMLAH ASN</t>
-  </si>
-  <si>
-    <t>LAPORAN</t>
-  </si>
-  <si>
-    <t>KETERANGAN</t>
-  </si>
-  <si>
-    <t>TL</t>
-  </si>
-  <si>
-    <t>CUTI</t>
-  </si>
-  <si>
-    <t>SAKIT</t>
-  </si>
-  <si>
-    <t>HADIR</t>
-  </si>
-  <si>
-    <t>TANPA KETERANGAN (TIDAK HADIR)</t>
-  </si>
-  <si>
-    <t>RATA-RATA HADIR (%)</t>
-  </si>
-  <si>
     <t>Kamis / 04-01-2024</t>
   </si>
   <si>
     <t>0.00 %</t>
+  </si>
+  <si>
+    <t>BIRO HUKUM</t>
   </si>
   <si>
     <t>Rabu / 03-01-2024</t>
@@ -438,27 +444,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="A6" sqref="A6:J9"/>
+      <selection activeCell="A6" sqref="A6:K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="true" style="0"/>
-    <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="3" max="3" width="15" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10" customWidth="true" style="0"/>
+    <col min="2" max="2" width="60" customWidth="true" style="0"/>
+    <col min="3" max="3" width="20" customWidth="true" style="0"/>
+    <col min="4" max="4" width="15" customWidth="true" style="0"/>
     <col min="5" max="5" width="10" customWidth="true" style="0"/>
     <col min="6" max="6" width="10" customWidth="true" style="0"/>
     <col min="7" max="7" width="10" customWidth="true" style="0"/>
-    <col min="8" max="8" width="33" customWidth="true" style="0"/>
-    <col min="9" max="9" width="20" customWidth="true" style="0"/>
+    <col min="8" max="8" width="10" customWidth="true" style="0"/>
+    <col min="9" max="9" width="33" customWidth="true" style="0"/>
     <col min="10" max="10" width="20" customWidth="true" style="0"/>
+    <col min="11" max="11" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -471,8 +478,9 @@
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
@@ -485,127 +493,167 @@
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" t="s">
+    <row r="6" spans="1:11">
+      <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="2" t="s">
+      <c r="B6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E6" s="2"/>
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:11">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:11">
       <c r="A8" s="4">
         <v>1</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="5">
+      <c r="C8" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="5">
         <v>10</v>
       </c>
-      <c r="D8" s="5">
+      <c r="E8" s="5">
         <v>1.0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="F8" s="5">
         <v>2.0</v>
       </c>
-      <c r="F8" s="5">
+      <c r="G8" s="5">
         <v>3.0</v>
       </c>
-      <c r="G8" s="5">
+      <c r="H8" s="5">
         <v>0.0</v>
       </c>
-      <c r="H8" s="5">
+      <c r="I8" s="5">
         <v>4.0</v>
       </c>
-      <c r="I8" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J8" s="4"/>
+      <c r="J8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="4"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:11">
       <c r="A9" s="4">
         <v>2</v>
       </c>
       <c r="B9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="5">
+        <v>10</v>
+      </c>
+      <c r="E9" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="F9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="H9" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="J9" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="5">
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="4">
+        <v>3</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5">
         <v>10</v>
       </c>
-      <c r="D9" s="5">
+      <c r="E10" s="5">
         <v>1.0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="F10" s="5">
         <v>2.0</v>
       </c>
-      <c r="F9" s="5">
+      <c r="G10" s="5">
         <v>3.0</v>
       </c>
-      <c r="G9" s="5">
+      <c r="H10" s="5">
         <v>0.0</v>
       </c>
-      <c r="H9" s="5">
+      <c r="I10" s="5">
         <v>4.0</v>
       </c>
-      <c r="I9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="4"/>
+      <c r="J10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K10" s="4"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="A2:K2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:I6"/>
-    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="K6:K7"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
